--- a/개인프로젝트.xlsx
+++ b/개인프로젝트.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20664" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20664" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="도안" sheetId="2" r:id="rId1"/>
     <sheet name="API 설계" sheetId="1" r:id="rId2"/>
+    <sheet name="구조" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'API 설계'!$A$1:$I$11</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>목적</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -234,6 +235,46 @@
   </si>
   <si>
     <t>스케쥴을 찾아 돌려준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST DUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOP DUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUT DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QC DUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>THREAD DUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIT DUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHEDULE </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX-FTY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타일 넘버</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,116 +719,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -795,80 +923,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1285,6 +1341,1309 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11047619" cy="1761905"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="952500"/>
+          <a:ext cx="11047619" cy="1761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="835037" cy="358431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="365760"/>
+          <a:ext cx="835037" cy="358431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>입력한 값</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1639295" cy="358431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4351020" y="381000"/>
+          <a:ext cx="1639295" cy="358431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>계산해서 저장된 날짜</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="338554" cy="358431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4488180" y="815340"/>
+          <a:ext cx="338554" cy="358431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="338554" cy="358431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5745480" y="815340"/>
+          <a:ext cx="338554" cy="358431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="338554" cy="358431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6903720" y="815340"/>
+          <a:ext cx="338554" cy="358431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="338554" cy="358431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016240" y="815340"/>
+          <a:ext cx="338554" cy="358431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="338554" cy="358431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9265920" y="815340"/>
+          <a:ext cx="338554" cy="358431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="338554" cy="358431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10431780" y="815340"/>
+          <a:ext cx="338554" cy="358431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="943400" cy="402803"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3093720" y="3078480"/>
+          <a:ext cx="943400" cy="402803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>하나 입력</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2361865" cy="402803"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427220" y="3093720"/>
+          <a:ext cx="2361865" cy="402803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>여섯개 출력 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>=&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>각각 한 줄씩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2065020" y="876300"/>
+          <a:ext cx="952500" cy="1874520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1082348" cy="289560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="2682241"/>
+          <a:ext cx="1082348" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>스타일넘버</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="876300"/>
+          <a:ext cx="952500" cy="1874520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="690638" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="2682240"/>
+          <a:ext cx="690638" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EX-FTY</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442460" y="876300"/>
+          <a:ext cx="7109460" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="959237" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="944880"/>
+          <a:ext cx="959237" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCHEDULE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442460" y="1386840"/>
+          <a:ext cx="7109460" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="502638" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11422380" y="1851660"/>
+          <a:ext cx="502638" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DUE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 연결선 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4351020" y="373380"/>
+          <a:ext cx="0" cy="3322320"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3642360" y="723900"/>
+          <a:ext cx="617220" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 화살표 연결선 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="723900"/>
+          <a:ext cx="617220" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1569,39 +2928,39 @@
   <sheetData>
     <row r="1" spans="3:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C2" s="67"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="65"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="3:17" ht="25.2" x14ac:dyDescent="0.4">
       <c r="C3" s="11"/>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="3:17" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -1610,13 +2969,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1634,71 +2993,71 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="59"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C6" s="11"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="49"/>
+      <c r="H6" s="78"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="68"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="53"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="3:17" ht="4.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="11"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="25"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="51"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="44"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C8" s="11"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="47"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="46" t="s">
+      <c r="N8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="44"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="27"/>
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="3:17" ht="4.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1713,9 +3072,9 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="44"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="3:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -1730,17 +3089,17 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="46" t="s">
+      <c r="N10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="44"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="27"/>
       <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C11" s="11"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="5"/>
@@ -1750,37 +3109,37 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="26"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="3:17" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C13" s="11"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="5"/>
@@ -1790,37 +3149,37 @@
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="26"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="3:17" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="11"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="23"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="18"/>
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C15" s="11"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="5"/>
@@ -1830,37 +3189,37 @@
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="26"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="3:17" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" s="11"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="23"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="18"/>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C17" s="11"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="5"/>
@@ -1870,37 +3229,37 @@
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="26"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="3:17" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="11"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="23"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="18"/>
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C19" s="11"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="5"/>
@@ -1910,37 +3269,37 @@
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="26"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="21"/>
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="3:17" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="11"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="32"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="23"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="18"/>
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C21" s="11"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="5"/>
@@ -1949,14 +3308,14 @@
         <v>13</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="26"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="21"/>
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.4">
@@ -1971,9 +3330,9 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="23"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="18"/>
       <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="3:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1988,9 +3347,9 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="20"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.4">
@@ -2012,71 +3371,71 @@
     </row>
     <row r="25" spans="3:17" ht="21" x14ac:dyDescent="0.4">
       <c r="C25" s="11"/>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18" t="s">
+      <c r="E25" s="51"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="18" t="s">
+      <c r="H25" s="51"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="17"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="13"/>
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C26" s="11"/>
-      <c r="D26" s="15">
+      <c r="D26" s="54">
         <v>1234567</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="54"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="15" t="s">
+      <c r="H26" s="54"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C27" s="11"/>
-      <c r="D27" s="13">
+      <c r="D27" s="48">
         <v>7890123</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="48"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.4">
@@ -2463,12 +3822,6 @@
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K21:L21"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="J27:L27"/>
@@ -2479,6 +3832,12 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="J25:L25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K21:L21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2491,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2506,23 +3865,23 @@
     <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="33.59765625" style="2" customWidth="1"/>
     <col min="9" max="9" width="3.09765625" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="71"/>
+    <col min="10" max="10" width="8.796875" style="39"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="43" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2540,7 +3899,7 @@
       <c r="H4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="40" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2549,7 +3908,7 @@
       <c r="D5" s="4"/>
       <c r="F5" s="4"/>
       <c r="H5" s="6"/>
-      <c r="J5" s="72"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="2:10" s="5" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
@@ -2564,7 +3923,7 @@
       <c r="H6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="40" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2573,7 +3932,7 @@
       <c r="D7" s="4"/>
       <c r="F7" s="4"/>
       <c r="H7" s="6"/>
-      <c r="J7" s="72"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="2:10" s="5" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
@@ -2588,27 +3947,665 @@
       <c r="H8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="68" t="s">
+    <row r="10" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="H10" s="70"/>
-      <c r="J10" s="73"/>
+      <c r="F10" s="36"/>
+      <c r="H10" s="38"/>
+      <c r="J10" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="7" width="8.796875" style="1" customWidth="1"/>
+    <col min="21" max="24" width="12.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="U4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="U5" s="1">
+        <v>450834</v>
+      </c>
+      <c r="V5" s="45">
+        <v>44014</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="46">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="U6" s="1">
+        <v>450834</v>
+      </c>
+      <c r="V6" s="45">
+        <v>44014</v>
+      </c>
+      <c r="W6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" s="44">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="U7" s="1">
+        <v>450834</v>
+      </c>
+      <c r="V7" s="45">
+        <v>44014</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="44">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="U8" s="1">
+        <v>450834</v>
+      </c>
+      <c r="V8" s="45">
+        <v>44014</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="44">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="U9" s="1">
+        <v>450834</v>
+      </c>
+      <c r="V9" s="45">
+        <v>44014</v>
+      </c>
+      <c r="W9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" s="44">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="U10" s="1">
+        <v>450834</v>
+      </c>
+      <c r="V10" s="45">
+        <v>44014</v>
+      </c>
+      <c r="W10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="44">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="U11" s="1">
+        <v>450739</v>
+      </c>
+      <c r="V11" s="45">
+        <v>44056</v>
+      </c>
+      <c r="W11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" s="44">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="U12" s="1">
+        <v>450739</v>
+      </c>
+      <c r="V12" s="45">
+        <v>44056</v>
+      </c>
+      <c r="W12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="X12" s="44">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="U13" s="1">
+        <v>450739</v>
+      </c>
+      <c r="V13" s="45">
+        <v>44056</v>
+      </c>
+      <c r="W13" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="X13" s="44">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="U14" s="1">
+        <v>450739</v>
+      </c>
+      <c r="V14" s="45">
+        <v>44056</v>
+      </c>
+      <c r="W14" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="X14" s="44">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="U15" s="1">
+        <v>450739</v>
+      </c>
+      <c r="V15" s="45">
+        <v>44056</v>
+      </c>
+      <c r="W15" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" s="44">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="U16" s="1">
+        <v>450739</v>
+      </c>
+      <c r="V16" s="45">
+        <v>44056</v>
+      </c>
+      <c r="W16" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" s="44">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.4">
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.4">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.4">
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>